--- a/APM files/140291048/140291048 IMPORT 10 FeeSet Cloud Import.xlsx
+++ b/APM files/140291048/140291048 IMPORT 10 FeeSet Cloud Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/140291048/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56072E94-3EC1-7941-B902-48DEE68E63A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66812FC7-DE1F-D947-A878-9D5CD02E1963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>FeeSet Type</t>
   </si>
   <si>
-    <t>06/11/2025</t>
-  </si>
-  <si>
     <t>117146944</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>Wonderful_Italy2</t>
+  </si>
+  <si>
+    <t>06/18/2025</t>
   </si>
 </sst>
 </file>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -681,16 +681,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2">
         <v>140291048</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -702,7 +702,7 @@
         <v>0.18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -719,16 +719,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2">
         <v>140291048</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -740,7 +740,7 @@
         <v>0.18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -757,16 +757,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2">
         <v>140291048</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -778,7 +778,7 @@
         <v>0.18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -795,16 +795,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2">
         <v>140291048</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -816,7 +816,7 @@
         <v>0.18</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -833,16 +833,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2">
         <v>140291048</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -854,7 +854,7 @@
         <v>0.18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -871,16 +871,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>140291048</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -892,7 +892,7 @@
         <v>0.18</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -909,16 +909,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>140291048</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -930,7 +930,7 @@
         <v>0.18</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -947,16 +947,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2">
         <v>140291048</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -968,7 +968,7 @@
         <v>0.18</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -985,16 +985,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2">
         <v>140291048</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1006,7 +1006,7 @@
         <v>0.18</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -1023,16 +1023,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2">
         <v>140291048</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1044,7 +1044,7 @@
         <v>0.18</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -1061,16 +1061,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2">
         <v>140291048</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1082,7 +1082,7 @@
         <v>0.18</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -1099,16 +1099,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2">
         <v>140291048</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1120,7 +1120,7 @@
         <v>0.18</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2">
         <v>140291048</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1158,7 +1158,7 @@
         <v>0.18</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -1175,16 +1175,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2">
         <v>140291048</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1196,7 +1196,7 @@
         <v>0.18</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2">
         <v>140291048</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1234,7 +1234,7 @@
         <v>0.18</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1251,16 +1251,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2">
         <v>140291048</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1272,7 +1272,7 @@
         <v>0.18</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
@@ -1289,16 +1289,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2">
         <v>140291048</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1310,7 +1310,7 @@
         <v>0.18</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
@@ -1327,16 +1327,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2">
         <v>140291048</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1348,7 +1348,7 @@
         <v>0.18</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2">
         <v>140291048</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1386,7 +1386,7 @@
         <v>0.18</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
@@ -1403,16 +1403,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2">
         <v>140291048</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1424,7 +1424,7 @@
         <v>0.18</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
@@ -1441,16 +1441,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2">
         <v>140291048</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1462,7 +1462,7 @@
         <v>0.18</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -1479,16 +1479,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2">
         <v>140291048</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1500,7 +1500,7 @@
         <v>0.18</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2">
         <v>140291048</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1538,7 +1538,7 @@
         <v>0.18</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
@@ -1555,16 +1555,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="2">
         <v>140291048</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1576,7 +1576,7 @@
         <v>0.18</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -1593,16 +1593,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2">
         <v>140291048</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1614,7 +1614,7 @@
         <v>0.18</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -1631,16 +1631,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2">
         <v>140291048</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1652,7 +1652,7 @@
         <v>0.18</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
@@ -1669,16 +1669,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2">
         <v>140291048</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1690,7 +1690,7 @@
         <v>0.18</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
@@ -1707,16 +1707,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2">
         <v>140291048</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1728,7 +1728,7 @@
         <v>0.18</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
@@ -1745,16 +1745,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2">
         <v>140291048</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1766,7 +1766,7 @@
         <v>0.18</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
@@ -1783,16 +1783,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2">
         <v>140291048</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1804,7 +1804,7 @@
         <v>0.18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
@@ -1821,16 +1821,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2">
         <v>140291048</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1842,7 +1842,7 @@
         <v>0.18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
@@ -1859,16 +1859,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2">
         <v>140291048</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1880,7 +1880,7 @@
         <v>0.18</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J33" t="s">
         <v>14</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2">
         <v>140291048</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1918,7 +1918,7 @@
         <v>0.18</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J34" t="s">
         <v>14</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2">
         <v>140291048</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1956,7 +1956,7 @@
         <v>0.18</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
@@ -1973,16 +1973,16 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2">
         <v>140291048</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1994,7 +1994,7 @@
         <v>0.18</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2">
         <v>140291048</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -2032,7 +2032,7 @@
         <v>0.18</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
@@ -2049,16 +2049,16 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2">
         <v>140291048</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -2070,7 +2070,7 @@
         <v>0.18</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
@@ -2087,16 +2087,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2">
         <v>140291048</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -2108,7 +2108,7 @@
         <v>0.18</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J39" t="s">
         <v>14</v>
@@ -2125,16 +2125,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="2">
         <v>140291048</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -2146,7 +2146,7 @@
         <v>0.18</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
@@ -2163,16 +2163,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2">
         <v>140291048</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -2184,7 +2184,7 @@
         <v>0.18</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J41" t="s">
         <v>14</v>
@@ -2201,16 +2201,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2">
         <v>140291048</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2222,7 +2222,7 @@
         <v>0.18</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J42" t="s">
         <v>14</v>
@@ -2239,16 +2239,16 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2">
         <v>140291048</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -2260,7 +2260,7 @@
         <v>0.18</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J43" t="s">
         <v>14</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2">
         <v>140291048</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -2298,7 +2298,7 @@
         <v>0.18</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J44" t="s">
         <v>14</v>
@@ -2315,16 +2315,16 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2">
         <v>140291048</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -2336,7 +2336,7 @@
         <v>0.18</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
@@ -2353,16 +2353,16 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" s="2">
         <v>140291048</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2374,7 +2374,7 @@
         <v>0.18</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J46" t="s">
         <v>14</v>
@@ -2391,16 +2391,16 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2">
         <v>140291048</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -2412,7 +2412,7 @@
         <v>0.18</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J47" t="s">
         <v>14</v>
@@ -2429,16 +2429,16 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2">
         <v>140291048</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -2450,7 +2450,7 @@
         <v>0.18</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J48" t="s">
         <v>14</v>
